--- a/DataTables/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
+++ b/DataTables/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Unreal Projects\ProjectH\DataTables\xlsx2py\rpgdemo\xlsxs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEBF9F7-286C-4567-B37A-15B6D0ECD886}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@人物初始化" sheetId="1" r:id="rId1"/>
-    <sheet name="代对表=" sheetId="2" r:id="rId2"/>
+    <sheet name="@种族" sheetId="3" r:id="rId2"/>
+    <sheet name="代对表=" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>所在场景</t>
   </si>
@@ -347,14 +354,54 @@
   </si>
   <si>
     <t>moveSpeed[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族:race</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>race[!.$][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侏儒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死亡灵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,6 +581,82 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -545,7 +668,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -858,14 +981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
@@ -892,7 +1015,7 @@
     <col min="34" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -993,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1">
+    <row r="2" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -1193,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -1294,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
@@ -1395,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
@@ -1496,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -1597,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -1711,24 +1834,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4354A518-5A13-41A1-A161-269661EC9661}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -1742,8 +1934,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
@@ -1754,7 +1948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>78</v>
@@ -1763,42 +1957,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
